--- a/suppliers/smartwecode/invoice controller.xlsx
+++ b/suppliers/smartwecode/invoice controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianrentea/Desktop/generate-invoice/furnizori/smartwecode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianrentea/Documents/GitHub/invoicing-app/suppliers/smartwecode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EC36BF-F5BD-7541-BCB1-4FF74CA6A1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A6AB7F-22BD-EB43-B3B1-BA48BF57A822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Serial</t>
   </si>
@@ -51,28 +51,17 @@
     <t>JWk</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4.DECEMBER.21</t>
-  </si>
-  <si>
-    <t>5.DECEMBER.21</t>
-  </si>
-  <si>
-    <t>22.DECEMBER.21</t>
+    <t>26.FEBRUARY.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmmm\-yy"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
-    <numFmt numFmtId="166" formatCode="d\ mmmm\ yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,12 +75,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,17 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,7 +325,7 @@
   <dimension ref="A1:D995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I38" sqref="A6:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -431,424 +409,60 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="14" x14ac:dyDescent="0.15"/>
     <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
